--- a/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
+++ b/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FEATURE</t>
   </si>
@@ -53,13 +53,31 @@
   </si>
   <si>
     <t>ASSOCIATE DEAN CAN VIEW OTHER CAMPUSES AS WELL</t>
+  </si>
+  <si>
+    <t>Auto Approve if Credencials from student's records matched</t>
+  </si>
+  <si>
+    <t>On/Off practice test</t>
+  </si>
+  <si>
+    <t>Changed BSECE course name</t>
+  </si>
+  <si>
+    <t>Changed "User code" into "Instructor's code / ID Number</t>
+  </si>
+  <si>
+    <t>Add Associate Dean Role/Tagging</t>
+  </si>
+  <si>
+    <t>Editable Number of Questions in Practice Test, default is 100.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -74,6 +92,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Segoe UI Historic&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -119,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -156,8 +179,11 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -456,13 +482,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -470,8 +500,10 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -479,8 +511,10 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -488,8 +522,10 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -497,8 +533,10 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -513,27 +551,27 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
@@ -543,104 +581,104 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
+++ b/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FEATURE</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Editable Number of Questions in Practice Test, default is 100.</t>
+  </si>
+  <si>
+    <t>SEARCH FILTERING IN USERS TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE SEARCH FILTER FEATURE IS INCONSISTENT. EXAMPLE IF I TYPE BS-CE, IT CANT FIND THE USERS WITH THAT PROGRAM. </t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -183,6 +189,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -404,7 +413,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="56.0"/>
     <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="50.25"/>
+    <col customWidth="1" min="3" max="3" width="103.75"/>
     <col customWidth="1" min="4" max="4" width="16.25"/>
   </cols>
   <sheetData>
@@ -544,9 +553,13 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -555,7 +568,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -664,7 +677,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>

--- a/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
+++ b/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>FEATURE</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">THE SEARCH FILTER FEATURE IS INCONSISTENT. EXAMPLE IF I TYPE BS-CE, IT CANT FIND THE USERS WITH THAT PROGRAM. </t>
+  </si>
+  <si>
+    <t>STUDENT TAKING EXAM</t>
+  </si>
+  <si>
+    <t>THE CHOICES WILL BE BLANK IF IT IS EITHER PICTURE OR SPECIAL CHARACTER</t>
   </si>
 </sst>
 </file>
@@ -567,9 +573,13 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>

--- a/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
+++ b/TESTING ENVIRONMENT RESULTS/CAPS V1.4.0 RESULTS .xlsx
@@ -82,7 +82,7 @@
     <t>STUDENT TAKING EXAM</t>
   </si>
   <si>
-    <t>THE CHOICES WILL BE BLANK IF IT IS EITHER PICTURE OR SPECIAL CHARACTER</t>
+    <t xml:space="preserve">THE CHOICES WILL BE BLANK IF 0 IS THE VALUE OF THE CHOICES </t>
   </si>
 </sst>
 </file>
